--- a/biology/Botanique/Sambucus_peruviana/Sambucus_peruviana.xlsx
+++ b/biology/Botanique/Sambucus_peruviana/Sambucus_peruviana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sauco
-Sambucus peruviana (connue aussi bien que tilo et sauco) est une espèce d'arbre de la famille Adoxaceae[1]. Il est originaire de l'Amérique du Sud[2].
+Sambucus peruviana (connue aussi bien que tilo et sauco) est une espèce d'arbre de la famille Adoxaceae. Il est originaire de l'Amérique du Sud.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbres de jusqu'à 8 m, tronc irrégulier[3],[4]. Feuilles composées, avec 7-9 folíolos ovado-oblongos, marge sciée, iota aigu, dos poilu[3],[4]. Les inflorescences sont de 18-22 cm de longueur, avec des fleurs odorantes blanches[3],[4]. Les fruits sont des baies noires de 1.2 cm de diamètre, avec 3 à 5 pépites[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbres de jusqu'à 8 m, tronc irrégulier,. Feuilles composées, avec 7-9 folíolos ovado-oblongos, marge sciée, iota aigu, dos poilu,. Les inflorescences sont de 18-22 cm de longueur, avec des fleurs odorantes blanches,. Les fruits sont des baies noires de 1.2 cm de diamètre, avec 3 à 5 pépites,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sambucus peruviana se trouve depuis le Costa Rica et le Panama et vers le sud par la zone andine jusqu'au nord-ouest de l'Argentine, dans un rang qu'oscille entre 2800 et 3900 m s. n. M.[2],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sambucus peruviana se trouve depuis le Costa Rica et le Panama et vers le sud par la zone andine jusqu'au nord-ouest de l'Argentine, dans un rang qu'oscille entre 2800 et 3900 m s. n. M.,.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Noms communs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sauco (Pérou, Colombie, Bolivie)
 kiola (l'Argentine)
-r'ayan (quechua)[2],[3].</t>
+r'ayan (quechua),.</t>
         </is>
       </c>
     </row>
@@ -606,9 +624,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits peuvent être la base de diverses préparations comme des confitures, boissons ou liqueurs[4],[5]. Les feuilles, les fleurs et les fruits ont des propriétés médicinales; analgésique, anti-inflammatoire, antiseptique[4],[6]. Le bois est dur et résistant. Il s'utilise pour la construction, fabrication d'outils et élaboration de quenas[4],[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits peuvent être la base de diverses préparations comme des confitures, boissons ou liqueurs,. Les feuilles, les fleurs et les fruits ont des propriétés médicinales; analgésique, anti-inflammatoire, antiseptique,. Le bois est dur et résistant. Il s'utilise pour la construction, fabrication d'outils et élaboration de quenas,.
 </t>
         </is>
       </c>
